--- a/code/BlueHr/BlueHrWeb/Template/作息表模板.xlsx
+++ b/code/BlueHr/BlueHrWeb/Template/作息表模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,7 +75,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -138,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -190,7 +190,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -384,7 +384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,10 +395,10 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
@@ -406,7 +406,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
